--- a/tour_sheets/TourSheet_Wednesday.xlsx
+++ b/tour_sheets/TourSheet_Wednesday.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="187">
   <si>
     <t>Wednesday</t>
   </si>
@@ -577,12 +577,6 @@
   </si>
   <si>
     <t>Herzog-Heinrich-Straße 8</t>
-  </si>
-  <si>
-    <t>Start A</t>
-  </si>
-  <si>
-    <t>End A</t>
   </si>
 </sst>
 </file>
@@ -959,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -976,156 +970,226 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4">
+        <v>149</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4901633</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1205995</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3">
-        <v>185</v>
+      <c r="A3" s="4">
+        <v>219</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4901809</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1204631</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>238</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4901821</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1205050</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>65</v>
+      <c r="A5" s="2">
+        <v>211</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4902446</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1205699</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>149</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4901633</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1205995</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="A6" s="2">
+        <v>458</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4902637</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1205912</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>219</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4901809</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1204631</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="A7" s="2">
+        <v>212</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4902472</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1205874</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>238</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
-        <v>4901821</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1205050</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="A8" s="4">
+        <v>176</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4902470</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1205850</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>211</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4902446</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1205699</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="A9" s="4">
+        <v>265</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4902386</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1205737</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>4902637</v>
+        <v>4902684</v>
       </c>
       <c r="E10" s="7">
-        <v>1205912</v>
+        <v>1206241</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1136,19 +1200,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7">
-        <v>4902472</v>
+        <v>4902523</v>
       </c>
       <c r="E11" s="7">
-        <v>1205874</v>
+        <v>1206258</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -1159,22 +1223,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D12" s="6">
-        <v>4902470</v>
+        <v>4902321</v>
       </c>
       <c r="E12" s="6">
-        <v>1205850</v>
+        <v>1206458</v>
       </c>
       <c r="F12" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>0</v>
@@ -1182,19 +1246,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D13" s="6">
-        <v>4902386</v>
+        <v>4902611</v>
       </c>
       <c r="E13" s="6">
-        <v>1205737</v>
+        <v>1206493</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1205,19 +1269,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7">
-        <v>4902684</v>
+        <v>4902589</v>
       </c>
       <c r="E14" s="7">
-        <v>1206241</v>
+        <v>1206472</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1227,46 +1291,46 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>214</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4902523</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1206258</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="A15" s="4">
+        <v>240</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4902048</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1206744</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D16" s="6">
-        <v>4902321</v>
+        <v>4901943</v>
       </c>
       <c r="E16" s="6">
-        <v>1206458</v>
+        <v>1206440</v>
       </c>
       <c r="F16" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>0</v>
@@ -1274,19 +1338,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D17" s="6">
-        <v>4902611</v>
+        <v>4901961</v>
       </c>
       <c r="E17" s="6">
-        <v>1206493</v>
+        <v>1206671</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -1296,43 +1360,43 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>215</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="7">
-        <v>4902589</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1206472</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="A18" s="4">
+        <v>239</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4902044</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1206769</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D19" s="6">
-        <v>4902048</v>
+        <v>4901965</v>
       </c>
       <c r="E19" s="6">
-        <v>1206744</v>
+        <v>1206651</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -1343,22 +1407,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D20" s="6">
-        <v>4901943</v>
+        <v>4902055</v>
       </c>
       <c r="E20" s="6">
-        <v>1206440</v>
+        <v>1206746</v>
       </c>
       <c r="F20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>0</v>
@@ -1366,19 +1430,19 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D21" s="6">
-        <v>4901961</v>
+        <v>4901932</v>
       </c>
       <c r="E21" s="6">
-        <v>1206671</v>
+        <v>1206594</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1389,19 +1453,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D22" s="6">
-        <v>4902044</v>
+        <v>4901950</v>
       </c>
       <c r="E22" s="6">
-        <v>1206769</v>
+        <v>1206544</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -1412,19 +1476,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D23" s="6">
-        <v>4901965</v>
+        <v>4901999</v>
       </c>
       <c r="E23" s="6">
-        <v>1206651</v>
+        <v>1206731</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
@@ -1435,180 +1499,180 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D24" s="6">
-        <v>4902055</v>
+        <v>4902038</v>
       </c>
       <c r="E24" s="6">
-        <v>1206746</v>
+        <v>1206747</v>
       </c>
       <c r="F24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4">
-        <v>77</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="6">
-        <v>4901932</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1206594</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="A25" s="2">
+        <v>232</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4901940</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1206379</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4">
-        <v>237</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="6">
-        <v>4901950</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1206544</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="A26" s="2">
+        <v>233</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4901855</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1206027</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
+        <v>254</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4901590</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1205784</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
         <v>234</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="7">
         <v>4901999</v>
       </c>
-      <c r="E27" s="6">
-        <v>1206731</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4">
-        <v>201</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6">
-        <v>4902038</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1206747</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="7">
+        <v>1205819</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2">
-        <v>232</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4901940</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1206379</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="A29" s="4">
+        <v>105</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4902149</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1205679</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2">
-        <v>233</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="7">
-        <v>4901855</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1206027</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="A30" s="4">
+        <v>63</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4901881</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1206002</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>4901590</v>
+        <v>4901299</v>
       </c>
       <c r="E31" s="7">
-        <v>1205784</v>
+        <v>1205406</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1619,19 +1683,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D32" s="7">
-        <v>4901999</v>
+        <v>4901227</v>
       </c>
       <c r="E32" s="7">
-        <v>1205819</v>
+        <v>1203285</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1641,66 +1705,66 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4">
-        <v>105</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="6">
-        <v>4902149</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1205679</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="A33" s="2">
+        <v>207</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4900699</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1203413</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4">
-        <v>63</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="6">
-        <v>4901881</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1206002</v>
-      </c>
-      <c r="F34" s="5">
-        <v>4</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="A34" s="2">
+        <v>208</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4900928</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1203345</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D35" s="7">
-        <v>4901299</v>
+        <v>4900963</v>
       </c>
       <c r="E35" s="7">
-        <v>1205406</v>
+        <v>1203692</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -1711,19 +1775,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="D36" s="7">
-        <v>4901227</v>
+        <v>4901698</v>
       </c>
       <c r="E36" s="7">
-        <v>1203285</v>
+        <v>1207170</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -1734,19 +1798,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" s="7">
-        <v>4900699</v>
+        <v>4901944</v>
       </c>
       <c r="E37" s="7">
-        <v>1203413</v>
+        <v>1206687</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -1757,19 +1821,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="D38" s="7">
-        <v>4900928</v>
+        <v>4901963</v>
       </c>
       <c r="E38" s="7">
-        <v>1203345</v>
+        <v>1207184</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1780,19 +1844,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" s="7">
-        <v>4900963</v>
+        <v>4902093</v>
       </c>
       <c r="E39" s="7">
-        <v>1203692</v>
+        <v>1206750</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -1803,19 +1867,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7">
-        <v>4901698</v>
+        <v>4902100</v>
       </c>
       <c r="E40" s="7">
-        <v>1207170</v>
+        <v>1207112</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -1826,19 +1890,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D41" s="7">
-        <v>4901944</v>
+        <v>4901555</v>
       </c>
       <c r="E41" s="7">
-        <v>1206687</v>
+        <v>1207219</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -1848,43 +1912,43 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2">
-        <v>261</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="7">
-        <v>4901963</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1207184</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="A42" s="4">
+        <v>217</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="6">
+        <v>4901983</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1207147</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D43" s="7">
-        <v>4902093</v>
+        <v>4901680</v>
       </c>
       <c r="E43" s="7">
-        <v>1206750</v>
+        <v>1206792</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
@@ -1894,115 +1958,115 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2">
-        <v>260</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="7">
-        <v>4902100</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1207112</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="A44" s="4">
+        <v>259</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="6">
+        <v>4901733</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1206766</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="2">
-        <v>273</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="7">
-        <v>4901555</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1207219</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="A45" s="4">
+        <v>218</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4901745</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1206768</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="4">
-        <v>217</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="6">
-        <v>4901983</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1207147</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="A46" s="2">
+        <v>262</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="7">
+        <v>4901851</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1206888</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2">
-        <v>263</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="7">
-        <v>4901680</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1206792</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3" t="s">
+      <c r="A47" s="4">
+        <v>17</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4901630</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1207102</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D48" s="6">
-        <v>4901733</v>
+        <v>4902093</v>
       </c>
       <c r="E48" s="6">
-        <v>1206766</v>
+        <v>1207087</v>
       </c>
       <c r="F48" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>0</v>
@@ -2010,19 +2074,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D49" s="6">
-        <v>4901745</v>
+        <v>4902094</v>
       </c>
       <c r="E49" s="6">
-        <v>1206768</v>
+        <v>1206660</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -2033,19 +2097,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D50" s="7">
-        <v>4901851</v>
+        <v>4902246</v>
       </c>
       <c r="E50" s="7">
-        <v>1206888</v>
+        <v>1206478</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
@@ -2056,22 +2120,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D51" s="6">
-        <v>4901630</v>
+        <v>4902281</v>
       </c>
       <c r="E51" s="6">
-        <v>1207102</v>
+        <v>1206487</v>
       </c>
       <c r="F51" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>0</v>
@@ -2079,19 +2143,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D52" s="6">
-        <v>4902093</v>
+        <v>4902273</v>
       </c>
       <c r="E52" s="6">
-        <v>1207087</v>
+        <v>1206000</v>
       </c>
       <c r="F52" s="5">
         <v>4</v>
@@ -2102,19 +2166,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4">
-        <v>242</v>
+        <v>59</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D53" s="6">
-        <v>4902094</v>
+        <v>4902313</v>
       </c>
       <c r="E53" s="6">
-        <v>1206660</v>
+        <v>1206633</v>
       </c>
       <c r="F53" s="5">
         <v>1</v>
@@ -2125,19 +2189,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D54" s="7">
-        <v>4902246</v>
+        <v>4902254</v>
       </c>
       <c r="E54" s="7">
-        <v>1206478</v>
+        <v>1207419</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
@@ -2147,135 +2211,135 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="4">
-        <v>22</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="6">
-        <v>4902281</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1206487</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="A55" s="2">
+        <v>483</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="7">
+        <v>4901976</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1207546</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="4">
-        <v>194</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="A56" s="2">
+        <v>272</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="7">
+        <v>4902039</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1207511</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2">
+        <v>257</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="7">
+        <v>4902121</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1206983</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4">
+        <v>195</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4902257</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1205853</v>
+      </c>
+      <c r="F58" s="5">
+        <v>6</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4">
         <v>105</v>
       </c>
-      <c r="D56" s="6">
-        <v>4902273</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1206000</v>
-      </c>
-      <c r="F56" s="5">
-        <v>4</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4">
-        <v>59</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="6">
-        <v>4902313</v>
-      </c>
-      <c r="E57" s="6">
-        <v>1206633</v>
-      </c>
-      <c r="F57" s="5">
-        <v>1</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="2">
-        <v>222</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="7">
-        <v>4902254</v>
-      </c>
-      <c r="E58" s="7">
-        <v>1207419</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="2">
-        <v>483</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="7">
-        <v>4901976</v>
-      </c>
-      <c r="E59" s="7">
-        <v>1207546</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3" t="s">
+      <c r="B59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="6">
+        <v>4902126</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1205704</v>
+      </c>
+      <c r="F59" s="5">
+        <v>5</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D60" s="7">
-        <v>4902039</v>
+        <v>4901355</v>
       </c>
       <c r="E60" s="7">
-        <v>1207511</v>
+        <v>1209062</v>
       </c>
       <c r="F60" s="3">
         <v>1</v>
@@ -2286,19 +2350,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>257</v>
+        <v>413</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="D61" s="7">
-        <v>4902121</v>
+        <v>4901302</v>
       </c>
       <c r="E61" s="7">
-        <v>1206983</v>
+        <v>1209020</v>
       </c>
       <c r="F61" s="3">
         <v>1</v>
@@ -2308,89 +2372,89 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="4">
-        <v>195</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="6">
-        <v>4902257</v>
-      </c>
-      <c r="E62" s="6">
-        <v>1205853</v>
-      </c>
-      <c r="F62" s="5">
-        <v>6</v>
-      </c>
-      <c r="G62" s="5" t="s">
+      <c r="A62" s="2">
+        <v>268</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="7">
+        <v>4901507</v>
+      </c>
+      <c r="E62" s="7">
+        <v>1207871</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="4">
-        <v>105</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="6">
-        <v>4902126</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1205704</v>
-      </c>
-      <c r="F63" s="5">
-        <v>5</v>
-      </c>
-      <c r="G63" s="5" t="s">
+      <c r="A63" s="2">
+        <v>498</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="7">
+        <v>4901657</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1207710</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="2">
-        <v>412</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64" s="7">
-        <v>4901355</v>
-      </c>
-      <c r="E64" s="7">
-        <v>1209062</v>
-      </c>
-      <c r="F64" s="3">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="A64" s="4">
+        <v>154</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="6">
+        <v>4901619</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1207547</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D65" s="7">
-        <v>4901302</v>
+        <v>4901805</v>
       </c>
       <c r="E65" s="7">
-        <v>1209020</v>
+        <v>1208389</v>
       </c>
       <c r="F65" s="3">
         <v>1</v>
@@ -2401,19 +2465,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D66" s="7">
-        <v>4901507</v>
+        <v>4901734</v>
       </c>
       <c r="E66" s="7">
-        <v>1207871</v>
+        <v>1208405</v>
       </c>
       <c r="F66" s="3">
         <v>1</v>
@@ -2424,19 +2488,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>498</v>
+        <v>269</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="D67" s="7">
-        <v>4901657</v>
+        <v>4901413</v>
       </c>
       <c r="E67" s="7">
-        <v>1207710</v>
+        <v>1207838</v>
       </c>
       <c r="F67" s="3">
         <v>1</v>
@@ -2446,43 +2510,43 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="4">
-        <v>154</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D68" s="6">
-        <v>4901619</v>
-      </c>
-      <c r="E68" s="6">
-        <v>1207547</v>
-      </c>
-      <c r="F68" s="5">
-        <v>3</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="A68" s="2">
+        <v>274</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="7">
+        <v>4901521</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1207056</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D69" s="7">
-        <v>4901805</v>
+        <v>4901399</v>
       </c>
       <c r="E69" s="7">
-        <v>1208389</v>
+        <v>1207072</v>
       </c>
       <c r="F69" s="3">
         <v>1</v>
@@ -2493,19 +2557,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="D70" s="7">
-        <v>4901734</v>
+        <v>4901523</v>
       </c>
       <c r="E70" s="7">
-        <v>1208405</v>
+        <v>1206797</v>
       </c>
       <c r="F70" s="3">
         <v>1</v>
@@ -2516,19 +2580,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="D71" s="7">
-        <v>4901413</v>
+        <v>4901451</v>
       </c>
       <c r="E71" s="7">
-        <v>1207838</v>
+        <v>1206307</v>
       </c>
       <c r="F71" s="3">
         <v>1</v>
@@ -2539,19 +2603,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D72" s="7">
-        <v>4901521</v>
+        <v>4902284</v>
       </c>
       <c r="E72" s="7">
-        <v>1207056</v>
+        <v>1207209</v>
       </c>
       <c r="F72" s="3">
         <v>1</v>
@@ -2562,19 +2626,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>503</v>
+        <v>210</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="D73" s="7">
-        <v>4901399</v>
+        <v>4901135</v>
       </c>
       <c r="E73" s="7">
-        <v>1207072</v>
+        <v>1204013</v>
       </c>
       <c r="F73" s="3">
         <v>1</v>
@@ -2584,43 +2648,43 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="2">
-        <v>275</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="7">
-        <v>4901523</v>
-      </c>
-      <c r="E74" s="7">
-        <v>1206797</v>
-      </c>
-      <c r="F74" s="3">
-        <v>1</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="A74" s="4">
+        <v>109</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="6">
+        <v>4901753</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1207506</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D75" s="7">
-        <v>4901451</v>
+        <v>4901717</v>
       </c>
       <c r="E75" s="7">
-        <v>1206307</v>
+        <v>1207517</v>
       </c>
       <c r="F75" s="3">
         <v>1</v>
@@ -2631,19 +2695,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>223</v>
+        <v>470</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="D76" s="7">
-        <v>4902284</v>
+        <v>4901541</v>
       </c>
       <c r="E76" s="7">
-        <v>1207209</v>
+        <v>1204333</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -2653,66 +2717,66 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="2">
-        <v>210</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="7">
-        <v>4901135</v>
-      </c>
-      <c r="E77" s="7">
-        <v>1204013</v>
-      </c>
-      <c r="F77" s="3">
-        <v>1</v>
-      </c>
-      <c r="G77" s="3" t="s">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="6">
+        <v>4902234</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1205929</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="4">
-        <v>109</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78" s="6">
-        <v>4901753</v>
-      </c>
-      <c r="E78" s="6">
-        <v>1207506</v>
-      </c>
-      <c r="F78" s="5">
-        <v>1</v>
-      </c>
-      <c r="G78" s="5" t="s">
+      <c r="A78" s="2">
+        <v>473</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="7">
+        <v>4902239</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1205953</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>270</v>
+        <v>474</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D79" s="7">
-        <v>4901717</v>
+        <v>4902268</v>
       </c>
       <c r="E79" s="7">
-        <v>1207517</v>
+        <v>1206239</v>
       </c>
       <c r="F79" s="3">
         <v>1</v>
@@ -2723,19 +2787,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="D80" s="7">
-        <v>4901541</v>
+        <v>4902130</v>
       </c>
       <c r="E80" s="7">
-        <v>1204333</v>
+        <v>1206289</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -2746,19 +2810,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="D81" s="6">
-        <v>4902234</v>
+        <v>4901583</v>
       </c>
       <c r="E81" s="6">
-        <v>1205929</v>
+        <v>1204195</v>
       </c>
       <c r="F81" s="5">
         <v>1</v>
@@ -2769,19 +2833,19 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>473</v>
+        <v>255</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="D82" s="7">
-        <v>4902239</v>
+        <v>4901263</v>
       </c>
       <c r="E82" s="7">
-        <v>1205953</v>
+        <v>1206358</v>
       </c>
       <c r="F82" s="3">
         <v>1</v>
@@ -2792,19 +2856,19 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="D83" s="7">
-        <v>4902268</v>
+        <v>4901302</v>
       </c>
       <c r="E83" s="7">
-        <v>1206239</v>
+        <v>1206697</v>
       </c>
       <c r="F83" s="3">
         <v>1</v>
@@ -2814,66 +2878,66 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="2">
-        <v>469</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="7">
-        <v>4902130</v>
-      </c>
-      <c r="E84" s="7">
-        <v>1206289</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="A84" s="4">
+        <v>62</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="6">
+        <v>4901490</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1208433</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="4">
-        <v>257</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="6">
-        <v>4901583</v>
-      </c>
-      <c r="E85" s="6">
-        <v>1204195</v>
-      </c>
-      <c r="F85" s="5">
-        <v>1</v>
-      </c>
-      <c r="G85" s="5" t="s">
+      <c r="A85" s="2">
+        <v>266</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D85" s="7">
+        <v>4901450</v>
+      </c>
+      <c r="E85" s="7">
+        <v>1208323</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D86" s="7">
-        <v>4901263</v>
+        <v>4901423</v>
       </c>
       <c r="E86" s="7">
-        <v>1206358</v>
+        <v>1203928</v>
       </c>
       <c r="F86" s="3">
         <v>1</v>
@@ -2884,19 +2948,19 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>504</v>
+        <v>243</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="D87" s="7">
-        <v>4901302</v>
+        <v>4901516</v>
       </c>
       <c r="E87" s="7">
-        <v>1206697</v>
+        <v>1203932</v>
       </c>
       <c r="F87" s="3">
         <v>1</v>
@@ -2907,19 +2971,19 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="D88" s="6">
-        <v>4901490</v>
+        <v>4901712</v>
       </c>
       <c r="E88" s="6">
-        <v>1208433</v>
+        <v>1204259</v>
       </c>
       <c r="F88" s="5">
         <v>1</v>
@@ -2930,19 +2994,19 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="D89" s="7">
-        <v>4901450</v>
+        <v>4901581</v>
       </c>
       <c r="E89" s="7">
-        <v>1208323</v>
+        <v>1204276</v>
       </c>
       <c r="F89" s="3">
         <v>1</v>
@@ -2952,43 +3016,43 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="2">
-        <v>247</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="7">
-        <v>4901423</v>
-      </c>
-      <c r="E90" s="7">
-        <v>1203928</v>
-      </c>
-      <c r="F90" s="3">
-        <v>1</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="A90" s="4">
+        <v>53</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="6">
+        <v>4901542</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1206224</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D91" s="7">
-        <v>4901516</v>
+        <v>4901458</v>
       </c>
       <c r="E91" s="7">
-        <v>1203932</v>
+        <v>1204185</v>
       </c>
       <c r="F91" s="3">
         <v>1</v>
@@ -2998,43 +3062,43 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="4">
-        <v>54</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" s="6">
-        <v>4901712</v>
-      </c>
-      <c r="E92" s="6">
-        <v>1204259</v>
-      </c>
-      <c r="F92" s="5">
-        <v>1</v>
-      </c>
-      <c r="G92" s="5" t="s">
+      <c r="A92" s="2">
+        <v>244</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="7">
+        <v>4901608</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1203871</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>53</v>
+        <v>246</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="D93" s="7">
-        <v>4901581</v>
+        <v>4901303</v>
       </c>
       <c r="E93" s="7">
-        <v>1204276</v>
+        <v>1204041</v>
       </c>
       <c r="F93" s="3">
         <v>1</v>
@@ -3045,203 +3109,203 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="D94" s="6">
-        <v>4901542</v>
+        <v>4901815</v>
       </c>
       <c r="E94" s="6">
-        <v>1206224</v>
+        <v>1204486</v>
       </c>
       <c r="F94" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="2">
-        <v>54</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" s="7">
-        <v>4901458</v>
-      </c>
-      <c r="E95" s="7">
-        <v>1204185</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="6">
+        <v>4901779</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1205241</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="2">
-        <v>244</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="7">
-        <v>4901608</v>
-      </c>
-      <c r="E96" s="7">
-        <v>1203871</v>
-      </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="A96" s="4">
+        <v>203</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="6">
+        <v>4901831</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1205182</v>
+      </c>
+      <c r="F96" s="5">
+        <v>10</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="2">
-        <v>246</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="7">
-        <v>4901303</v>
-      </c>
-      <c r="E97" s="7">
-        <v>1204041</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3" t="s">
+      <c r="A97" s="4">
+        <v>199</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="6">
+        <v>4902233</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1205752</v>
+      </c>
+      <c r="F97" s="5">
+        <v>3</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="4">
-        <v>150</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D98" s="6">
-        <v>4901815</v>
-      </c>
-      <c r="E98" s="6">
-        <v>1204486</v>
-      </c>
-      <c r="F98" s="5">
-        <v>2</v>
-      </c>
-      <c r="G98" s="5" t="s">
+      <c r="A98" s="2">
+        <v>248</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="7">
+        <v>4901515</v>
+      </c>
+      <c r="E98" s="7">
+        <v>1203777</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="4">
-        <v>93</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" s="6">
-        <v>4901779</v>
-      </c>
-      <c r="E99" s="6">
-        <v>1205241</v>
-      </c>
-      <c r="F99" s="5">
-        <v>1</v>
-      </c>
-      <c r="G99" s="5" t="s">
+      <c r="A99" s="2">
+        <v>237</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="7">
+        <v>4901689</v>
+      </c>
+      <c r="E99" s="7">
+        <v>1205157</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="4">
-        <v>203</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="6">
-        <v>4901831</v>
-      </c>
-      <c r="E100" s="6">
-        <v>1205182</v>
-      </c>
-      <c r="F100" s="5">
-        <v>10</v>
-      </c>
-      <c r="G100" s="5" t="s">
+      <c r="A100" s="2">
+        <v>235</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="7">
+        <v>4901733</v>
+      </c>
+      <c r="E100" s="7">
+        <v>1205325</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="4">
-        <v>199</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D101" s="6">
-        <v>4902233</v>
-      </c>
-      <c r="E101" s="6">
-        <v>1205752</v>
-      </c>
-      <c r="F101" s="5">
-        <v>3</v>
-      </c>
-      <c r="G101" s="5" t="s">
+      <c r="A101" s="2">
+        <v>236</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="7">
+        <v>4901575</v>
+      </c>
+      <c r="E101" s="7">
+        <v>1205305</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D102" s="7">
-        <v>4901515</v>
+        <v>4901498</v>
       </c>
       <c r="E102" s="7">
-        <v>1203777</v>
+        <v>1204998</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -3251,66 +3315,66 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="2">
-        <v>237</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D103" s="7">
-        <v>4901689</v>
-      </c>
-      <c r="E103" s="7">
-        <v>1205157</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="A103" s="4">
+        <v>95</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="6">
+        <v>4901753</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1205279</v>
+      </c>
+      <c r="F103" s="5">
+        <v>1</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="2">
-        <v>235</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D104" s="7">
-        <v>4901733</v>
-      </c>
-      <c r="E104" s="7">
-        <v>1205325</v>
-      </c>
-      <c r="F104" s="3">
-        <v>1</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="A104" s="4">
+        <v>202</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="6">
+        <v>4901488</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1205246</v>
+      </c>
+      <c r="F104" s="5">
+        <v>3</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D105" s="7">
-        <v>4901575</v>
+        <v>4901417</v>
       </c>
       <c r="E105" s="7">
-        <v>1205305</v>
+        <v>1205280</v>
       </c>
       <c r="F105" s="3">
         <v>1</v>
@@ -3321,19 +3385,19 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D106" s="7">
-        <v>4901498</v>
+        <v>4901534</v>
       </c>
       <c r="E106" s="7">
-        <v>1204998</v>
+        <v>1205175</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
@@ -3344,19 +3408,19 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D107" s="6">
-        <v>4901753</v>
+        <v>4901540</v>
       </c>
       <c r="E107" s="6">
-        <v>1205279</v>
+        <v>1205299</v>
       </c>
       <c r="F107" s="5">
         <v>1</v>
@@ -3367,22 +3431,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="D108" s="6">
-        <v>4901488</v>
+        <v>4901432</v>
       </c>
       <c r="E108" s="6">
-        <v>1205246</v>
+        <v>1204715</v>
       </c>
       <c r="F108" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>0</v>
@@ -3390,19 +3454,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="D109" s="7">
-        <v>4901417</v>
+        <v>4901528</v>
       </c>
       <c r="E109" s="7">
-        <v>1205280</v>
+        <v>1204747</v>
       </c>
       <c r="F109" s="3">
         <v>1</v>
@@ -3412,89 +3476,89 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="2">
-        <v>251</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" s="7">
-        <v>4901534</v>
-      </c>
-      <c r="E110" s="7">
-        <v>1205175</v>
-      </c>
-      <c r="F110" s="3">
-        <v>1</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="A110" s="4">
+        <v>94</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" s="6">
+        <v>4901689</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1205196</v>
+      </c>
+      <c r="F110" s="5">
+        <v>1</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="4">
-        <v>114</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="6">
-        <v>4901540</v>
-      </c>
-      <c r="E111" s="6">
-        <v>1205299</v>
-      </c>
-      <c r="F111" s="5">
-        <v>1</v>
-      </c>
-      <c r="G111" s="5" t="s">
+      <c r="A111" s="2">
+        <v>239</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" s="7">
+        <v>4901685</v>
+      </c>
+      <c r="E111" s="7">
+        <v>1204754</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="4">
-        <v>110</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D112" s="6">
-        <v>4901432</v>
-      </c>
-      <c r="E112" s="6">
-        <v>1204715</v>
-      </c>
-      <c r="F112" s="5">
-        <v>1</v>
-      </c>
-      <c r="G112" s="5" t="s">
+      <c r="A112" s="2">
+        <v>240</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D112" s="7">
+        <v>4902032</v>
+      </c>
+      <c r="E112" s="7">
+        <v>1204662</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="D113" s="7">
-        <v>4901528</v>
+        <v>4901265</v>
       </c>
       <c r="E113" s="7">
-        <v>1204747</v>
+        <v>1204811</v>
       </c>
       <c r="F113" s="3">
         <v>1</v>
@@ -3504,43 +3568,43 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="4">
-        <v>94</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D114" s="6">
-        <v>4901689</v>
-      </c>
-      <c r="E114" s="6">
-        <v>1205196</v>
-      </c>
-      <c r="F114" s="5">
-        <v>1</v>
-      </c>
-      <c r="G114" s="5" t="s">
+      <c r="A114" s="2">
+        <v>241</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="7">
+        <v>4902099</v>
+      </c>
+      <c r="E114" s="7">
+        <v>1204618</v>
+      </c>
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="D115" s="7">
-        <v>4901685</v>
+        <v>4902010</v>
       </c>
       <c r="E115" s="7">
-        <v>1204754</v>
+        <v>1204289</v>
       </c>
       <c r="F115" s="3">
         <v>1</v>
@@ -3551,19 +3615,19 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D116" s="7">
-        <v>4902032</v>
+        <v>4901849</v>
       </c>
       <c r="E116" s="7">
-        <v>1204662</v>
+        <v>1204286</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -3574,19 +3638,19 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>245</v>
+        <v>459</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="D117" s="7">
-        <v>4901265</v>
+        <v>4901895</v>
       </c>
       <c r="E117" s="7">
-        <v>1204811</v>
+        <v>1204245</v>
       </c>
       <c r="F117" s="3">
         <v>1</v>
@@ -3597,19 +3661,19 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D118" s="7">
-        <v>4902099</v>
+        <v>4902288</v>
       </c>
       <c r="E118" s="7">
-        <v>1204618</v>
+        <v>1208098</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -3620,19 +3684,19 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>242</v>
+        <v>410</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="D119" s="7">
-        <v>4902010</v>
+        <v>4902275</v>
       </c>
       <c r="E119" s="7">
-        <v>1204289</v>
+        <v>1208100</v>
       </c>
       <c r="F119" s="3">
         <v>1</v>
@@ -3643,22 +3707,22 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>389</v>
+        <v>259</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="D120" s="7">
-        <v>4901849</v>
+        <v>4901848</v>
       </c>
       <c r="E120" s="7">
-        <v>1204286</v>
+        <v>1208529</v>
       </c>
       <c r="F120" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>0</v>
@@ -3666,19 +3730,19 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>459</v>
+        <v>216</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="D121" s="7">
-        <v>4901895</v>
+        <v>4902709</v>
       </c>
       <c r="E121" s="7">
-        <v>1204245</v>
+        <v>1206727</v>
       </c>
       <c r="F121" s="3">
         <v>1</v>
@@ -3689,19 +3753,19 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>228</v>
+        <v>500</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="D122" s="7">
-        <v>4902288</v>
+        <v>4902743</v>
       </c>
       <c r="E122" s="7">
-        <v>1208098</v>
+        <v>1206559</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -3712,19 +3776,19 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>410</v>
+        <v>225</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="D123" s="7">
-        <v>4902275</v>
+        <v>4899140</v>
       </c>
       <c r="E123" s="7">
-        <v>1208100</v>
+        <v>1208380</v>
       </c>
       <c r="F123" s="3">
         <v>1</v>
@@ -3735,111 +3799,111 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D124" s="7">
-        <v>4901848</v>
+        <v>4902382</v>
       </c>
       <c r="E124" s="7">
-        <v>1208529</v>
+        <v>1207625</v>
       </c>
       <c r="F124" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="2">
-        <v>216</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D125" s="7">
-        <v>4902709</v>
-      </c>
-      <c r="E125" s="7">
-        <v>1206727</v>
-      </c>
-      <c r="F125" s="3">
-        <v>1</v>
-      </c>
-      <c r="G125" s="3" t="s">
+      <c r="A125" s="4">
+        <v>56</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D125" s="6">
+        <v>4902722</v>
+      </c>
+      <c r="E125" s="6">
+        <v>1206660</v>
+      </c>
+      <c r="F125" s="5">
+        <v>1</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="2">
-        <v>500</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D126" s="7">
-        <v>4902743</v>
-      </c>
-      <c r="E126" s="7">
-        <v>1206559</v>
-      </c>
-      <c r="F126" s="3">
-        <v>1</v>
-      </c>
-      <c r="G126" s="3" t="s">
+      <c r="A126" s="4">
+        <v>57</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126" s="6">
+        <v>4902773</v>
+      </c>
+      <c r="E126" s="6">
+        <v>1206204</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1</v>
+      </c>
+      <c r="G126" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="2">
-        <v>225</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D127" s="7">
-        <v>4899140</v>
-      </c>
-      <c r="E127" s="7">
-        <v>1208380</v>
-      </c>
-      <c r="F127" s="3">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3" t="s">
+      <c r="A127" s="4">
+        <v>55</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D127" s="6">
+        <v>4901433</v>
+      </c>
+      <c r="E127" s="6">
+        <v>1205569</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1</v>
+      </c>
+      <c r="G127" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="D128" s="7">
-        <v>4902382</v>
+        <v>4902607</v>
       </c>
       <c r="E128" s="7">
-        <v>1207625</v>
+        <v>1207207</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -3849,89 +3913,89 @@
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="4">
-        <v>56</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D129" s="6">
-        <v>4902722</v>
-      </c>
-      <c r="E129" s="6">
-        <v>1206660</v>
-      </c>
-      <c r="F129" s="5">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5" t="s">
+      <c r="A129" s="2">
+        <v>409</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" s="7">
+        <v>4902483</v>
+      </c>
+      <c r="E129" s="7">
+        <v>1207939</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="4">
-        <v>57</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D130" s="6">
-        <v>4902773</v>
-      </c>
-      <c r="E130" s="6">
-        <v>1206204</v>
-      </c>
-      <c r="F130" s="5">
-        <v>1</v>
-      </c>
-      <c r="G130" s="5" t="s">
+      <c r="A130" s="2">
+        <v>226</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" s="7">
+        <v>4902259</v>
+      </c>
+      <c r="E130" s="7">
+        <v>1207864</v>
+      </c>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="4">
-        <v>55</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D131" s="6">
-        <v>4901433</v>
-      </c>
-      <c r="E131" s="6">
-        <v>1205569</v>
-      </c>
-      <c r="F131" s="5">
-        <v>1</v>
-      </c>
-      <c r="G131" s="5" t="s">
+      <c r="A131" s="2">
+        <v>407</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D131" s="7">
+        <v>4902188</v>
+      </c>
+      <c r="E131" s="7">
+        <v>1208017</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2">
-        <v>218</v>
+        <v>499</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="D132" s="7">
-        <v>4902607</v>
+        <v>4902218</v>
       </c>
       <c r="E132" s="7">
-        <v>1207207</v>
+        <v>1207987</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -3942,19 +4006,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
-        <v>409</v>
+        <v>227</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D133" s="7">
-        <v>4902483</v>
+        <v>4902185</v>
       </c>
       <c r="E133" s="7">
-        <v>1207939</v>
+        <v>1207961</v>
       </c>
       <c r="F133" s="3">
         <v>1</v>
@@ -3965,19 +4029,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="D134" s="7">
-        <v>4902259</v>
+        <v>4902787</v>
       </c>
       <c r="E134" s="7">
-        <v>1207864</v>
+        <v>1205877</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
@@ -3988,19 +4052,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2">
-        <v>407</v>
+        <v>224</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D135" s="7">
-        <v>4902188</v>
+        <v>4902566</v>
       </c>
       <c r="E135" s="7">
-        <v>1208017</v>
+        <v>1207736</v>
       </c>
       <c r="F135" s="3">
         <v>1</v>
@@ -4011,19 +4075,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
-        <v>499</v>
+        <v>220</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="D136" s="7">
-        <v>4902218</v>
+        <v>4902485</v>
       </c>
       <c r="E136" s="7">
-        <v>1207987</v>
+        <v>1207513</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
@@ -4034,19 +4098,19 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="D137" s="7">
-        <v>4902185</v>
+        <v>4902477</v>
       </c>
       <c r="E137" s="7">
-        <v>1207961</v>
+        <v>1207104</v>
       </c>
       <c r="F137" s="3">
         <v>1</v>
@@ -4056,43 +4120,43 @@
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="2">
-        <v>213</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D138" s="7">
-        <v>4902787</v>
-      </c>
-      <c r="E138" s="7">
-        <v>1205877</v>
-      </c>
-      <c r="F138" s="3">
-        <v>1</v>
-      </c>
-      <c r="G138" s="3" t="s">
+      <c r="A138" s="4">
+        <v>502</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" s="6">
+        <v>4902069</v>
+      </c>
+      <c r="E138" s="6">
+        <v>1208012</v>
+      </c>
+      <c r="F138" s="5">
+        <v>1</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="2">
-        <v>224</v>
+        <v>501</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="D139" s="7">
-        <v>4902566</v>
+        <v>4902118</v>
       </c>
       <c r="E139" s="7">
-        <v>1207736</v>
+        <v>1207301</v>
       </c>
       <c r="F139" s="3">
         <v>1</v>
@@ -4102,43 +4166,43 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="2">
-        <v>220</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D140" s="7">
-        <v>4902485</v>
-      </c>
-      <c r="E140" s="7">
-        <v>1207513</v>
-      </c>
-      <c r="F140" s="3">
-        <v>1</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="A140" s="4">
+        <v>241</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="6">
+        <v>4902089</v>
+      </c>
+      <c r="E140" s="6">
+        <v>1206482</v>
+      </c>
+      <c r="F140" s="5">
+        <v>1</v>
+      </c>
+      <c r="G140" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="D141" s="7">
-        <v>4902477</v>
+        <v>4901450</v>
       </c>
       <c r="E141" s="7">
-        <v>1207104</v>
+        <v>1208156</v>
       </c>
       <c r="F141" s="3">
         <v>1</v>
@@ -4148,43 +4212,43 @@
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="4">
-        <v>502</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D142" s="6">
-        <v>4902069</v>
-      </c>
-      <c r="E142" s="6">
-        <v>1208012</v>
-      </c>
-      <c r="F142" s="5">
-        <v>1</v>
-      </c>
-      <c r="G142" s="5" t="s">
+      <c r="A142" s="2">
+        <v>271</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D142" s="7">
+        <v>4901852</v>
+      </c>
+      <c r="E142" s="7">
+        <v>1207650</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="D143" s="7">
-        <v>4902118</v>
+        <v>4902268</v>
       </c>
       <c r="E143" s="7">
-        <v>1207301</v>
+        <v>1207816</v>
       </c>
       <c r="F143" s="3">
         <v>1</v>
@@ -4194,89 +4258,89 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="4">
-        <v>241</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="6">
-        <v>4902089</v>
-      </c>
-      <c r="E144" s="6">
-        <v>1206482</v>
-      </c>
-      <c r="F144" s="5">
-        <v>1</v>
-      </c>
-      <c r="G144" s="5" t="s">
+      <c r="A144" s="2">
+        <v>230</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D144" s="7">
+        <v>4902124</v>
+      </c>
+      <c r="E144" s="7">
+        <v>1206519</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="2">
-        <v>265</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D145" s="7">
-        <v>4901450</v>
-      </c>
-      <c r="E145" s="7">
-        <v>1208156</v>
-      </c>
-      <c r="F145" s="3">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="A145" s="4">
+        <v>49</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D145" s="6">
+        <v>4902832</v>
+      </c>
+      <c r="E145" s="6">
+        <v>1209839</v>
+      </c>
+      <c r="F145" s="5">
+        <v>2</v>
+      </c>
+      <c r="G145" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="2">
-        <v>271</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D146" s="7">
-        <v>4901852</v>
-      </c>
-      <c r="E146" s="7">
-        <v>1207650</v>
-      </c>
-      <c r="F146" s="3">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="A146" s="4">
+        <v>50</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D146" s="6">
+        <v>4902072</v>
+      </c>
+      <c r="E146" s="6">
+        <v>1207626</v>
+      </c>
+      <c r="F146" s="5">
+        <v>1</v>
+      </c>
+      <c r="G146" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2">
-        <v>408</v>
+        <v>258</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D147" s="7">
-        <v>4902268</v>
+        <v>4901825</v>
       </c>
       <c r="E147" s="7">
-        <v>1207816</v>
+        <v>1208627</v>
       </c>
       <c r="F147" s="3">
         <v>1</v>
@@ -4287,19 +4351,19 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="D148" s="7">
-        <v>4902124</v>
+        <v>4903214</v>
       </c>
       <c r="E148" s="7">
-        <v>1206519</v>
+        <v>1205856</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -4309,89 +4373,89 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="4">
-        <v>49</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D149" s="6">
-        <v>4902832</v>
-      </c>
-      <c r="E149" s="6">
-        <v>1209839</v>
-      </c>
-      <c r="F149" s="5">
-        <v>2</v>
-      </c>
-      <c r="G149" s="5" t="s">
+      <c r="A149" s="2">
+        <v>398</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D149" s="7">
+        <v>4902933</v>
+      </c>
+      <c r="E149" s="7">
+        <v>1208572</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="4">
-        <v>50</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D150" s="6">
-        <v>4902072</v>
-      </c>
-      <c r="E150" s="6">
-        <v>1207626</v>
-      </c>
-      <c r="F150" s="5">
-        <v>1</v>
-      </c>
-      <c r="G150" s="5" t="s">
+      <c r="A150" s="2">
+        <v>290</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D150" s="7">
+        <v>4903228</v>
+      </c>
+      <c r="E150" s="7">
+        <v>1205129</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="2">
-        <v>258</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" s="7">
-        <v>4901825</v>
-      </c>
-      <c r="E151" s="7">
-        <v>1208627</v>
-      </c>
-      <c r="F151" s="3">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3" t="s">
+      <c r="A151" s="4">
+        <v>52</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D151" s="6">
+        <v>4902934</v>
+      </c>
+      <c r="E151" s="6">
+        <v>1209013</v>
+      </c>
+      <c r="F151" s="5">
+        <v>1</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D152" s="7">
-        <v>4903214</v>
+        <v>4903209</v>
       </c>
       <c r="E152" s="7">
-        <v>1205856</v>
+        <v>1206876</v>
       </c>
       <c r="F152" s="3">
         <v>1</v>
@@ -4401,43 +4465,43 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="2">
-        <v>398</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D153" s="7">
-        <v>4902933</v>
-      </c>
-      <c r="E153" s="7">
-        <v>1208572</v>
-      </c>
-      <c r="F153" s="3">
-        <v>1</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="A153" s="4">
+        <v>51</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153" s="6">
+        <v>4902755</v>
+      </c>
+      <c r="E153" s="6">
+        <v>1209352</v>
+      </c>
+      <c r="F153" s="5">
+        <v>2</v>
+      </c>
+      <c r="G153" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D154" s="7">
-        <v>4903228</v>
+        <v>4903034</v>
       </c>
       <c r="E154" s="7">
-        <v>1205129</v>
+        <v>1207688</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -4447,43 +4511,43 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="4">
-        <v>52</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D155" s="6">
-        <v>4902934</v>
-      </c>
-      <c r="E155" s="6">
-        <v>1209013</v>
-      </c>
-      <c r="F155" s="5">
-        <v>1</v>
-      </c>
-      <c r="G155" s="5" t="s">
+      <c r="A155" s="2">
+        <v>397</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" s="7">
+        <v>4903283</v>
+      </c>
+      <c r="E155" s="7">
+        <v>1208806</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="D156" s="7">
-        <v>4903209</v>
+        <v>4903319</v>
       </c>
       <c r="E156" s="7">
-        <v>1206876</v>
+        <v>1203753</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -4494,22 +4558,22 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="D157" s="6">
-        <v>4902755</v>
+        <v>4901643</v>
       </c>
       <c r="E157" s="6">
-        <v>1209352</v>
+        <v>1206936</v>
       </c>
       <c r="F157" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>0</v>
@@ -4517,19 +4581,19 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="D158" s="7">
-        <v>4903034</v>
+        <v>4902992</v>
       </c>
       <c r="E158" s="7">
-        <v>1207688</v>
+        <v>1210116</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -4540,19 +4604,19 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="D159" s="7">
-        <v>4903283</v>
+        <v>4903166</v>
       </c>
       <c r="E159" s="7">
-        <v>1208806</v>
+        <v>1209938</v>
       </c>
       <c r="F159" s="3">
         <v>1</v>
@@ -4563,22 +4627,22 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
-        <v>289</v>
+        <v>401</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D160" s="7">
-        <v>4903319</v>
+        <v>4903279</v>
       </c>
       <c r="E160" s="7">
-        <v>1203753</v>
+        <v>1209630</v>
       </c>
       <c r="F160" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>0</v>
@@ -4586,19 +4650,19 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="D161" s="6">
-        <v>4901643</v>
+        <v>4903266</v>
       </c>
       <c r="E161" s="6">
-        <v>1206936</v>
+        <v>1209686</v>
       </c>
       <c r="F161" s="5">
         <v>1</v>
@@ -4608,43 +4672,43 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="2">
-        <v>400</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D162" s="7">
-        <v>4902992</v>
-      </c>
-      <c r="E162" s="7">
-        <v>1210116</v>
-      </c>
-      <c r="F162" s="3">
-        <v>1</v>
-      </c>
-      <c r="G162" s="3" t="s">
+      <c r="A162" s="4">
+        <v>64</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D162" s="6">
+        <v>4903502</v>
+      </c>
+      <c r="E162" s="6">
+        <v>1209608</v>
+      </c>
+      <c r="F162" s="5">
+        <v>1</v>
+      </c>
+      <c r="G162" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D163" s="7">
-        <v>4903166</v>
+        <v>4903338</v>
       </c>
       <c r="E163" s="7">
-        <v>1209938</v>
+        <v>1209908</v>
       </c>
       <c r="F163" s="3">
         <v>1</v>
@@ -4655,22 +4719,22 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="D164" s="7">
-        <v>4903279</v>
+        <v>4903531</v>
       </c>
       <c r="E164" s="7">
-        <v>1209630</v>
+        <v>1209666</v>
       </c>
       <c r="F164" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>0</v>
@@ -4678,19 +4742,19 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D165" s="6">
-        <v>4903266</v>
+        <v>4902442</v>
       </c>
       <c r="E165" s="6">
-        <v>1209686</v>
+        <v>1208729</v>
       </c>
       <c r="F165" s="5">
         <v>1</v>
@@ -4700,43 +4764,43 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="4">
-        <v>64</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D166" s="6">
-        <v>4903502</v>
-      </c>
-      <c r="E166" s="6">
-        <v>1209608</v>
-      </c>
-      <c r="F166" s="5">
-        <v>1</v>
-      </c>
-      <c r="G166" s="5" t="s">
+      <c r="A166" s="2">
+        <v>452</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" s="7">
+        <v>4902375</v>
+      </c>
+      <c r="E166" s="7">
+        <v>1208958</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="D167" s="7">
-        <v>4903338</v>
+        <v>4902560</v>
       </c>
       <c r="E167" s="7">
-        <v>1209908</v>
+        <v>1209900</v>
       </c>
       <c r="F167" s="3">
         <v>1</v>
@@ -4747,19 +4811,19 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="D168" s="7">
-        <v>4903531</v>
+        <v>4902350</v>
       </c>
       <c r="E168" s="7">
-        <v>1209666</v>
+        <v>1208821</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -4769,43 +4833,43 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="4">
-        <v>246</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D169" s="6">
-        <v>4902442</v>
-      </c>
-      <c r="E169" s="6">
-        <v>1208729</v>
-      </c>
-      <c r="F169" s="5">
-        <v>1</v>
-      </c>
-      <c r="G169" s="5" t="s">
+      <c r="A169" s="2">
+        <v>448</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D169" s="7">
+        <v>4902619</v>
+      </c>
+      <c r="E169" s="7">
+        <v>1209262</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D170" s="7">
-        <v>4902375</v>
+        <v>4902521</v>
       </c>
       <c r="E170" s="7">
-        <v>1208958</v>
+        <v>1209494</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
@@ -4816,19 +4880,19 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D171" s="7">
-        <v>4902560</v>
+        <v>4902639</v>
       </c>
       <c r="E171" s="7">
-        <v>1209900</v>
+        <v>1209576</v>
       </c>
       <c r="F171" s="3">
         <v>1</v>
@@ -4839,19 +4903,19 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="D172" s="7">
-        <v>4902350</v>
+        <v>4902929</v>
       </c>
       <c r="E172" s="7">
-        <v>1208821</v>
+        <v>1209826</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
@@ -4862,19 +4926,19 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="D173" s="7">
-        <v>4902619</v>
+        <v>4902454</v>
       </c>
       <c r="E173" s="7">
-        <v>1209262</v>
+        <v>1210054</v>
       </c>
       <c r="F173" s="3">
         <v>1</v>
@@ -4885,19 +4949,19 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D174" s="7">
-        <v>4902521</v>
+        <v>4902869</v>
       </c>
       <c r="E174" s="7">
-        <v>1209494</v>
+        <v>1209292</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -4908,19 +4972,19 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="D175" s="7">
-        <v>4902639</v>
+        <v>4902962</v>
       </c>
       <c r="E175" s="7">
-        <v>1209576</v>
+        <v>1209296</v>
       </c>
       <c r="F175" s="3">
         <v>1</v>
@@ -4931,19 +4995,19 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D176" s="7">
-        <v>4902929</v>
+        <v>4902935</v>
       </c>
       <c r="E176" s="7">
-        <v>1209826</v>
+        <v>1208937</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
@@ -4953,43 +5017,43 @@
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="2">
-        <v>446</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D177" s="7">
-        <v>4902454</v>
-      </c>
-      <c r="E177" s="7">
-        <v>1210054</v>
-      </c>
-      <c r="F177" s="3">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3" t="s">
+      <c r="A177" s="4">
+        <v>168</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D177" s="6">
+        <v>4902970</v>
+      </c>
+      <c r="E177" s="6">
+        <v>1208998</v>
+      </c>
+      <c r="F177" s="5">
+        <v>1</v>
+      </c>
+      <c r="G177" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
-        <v>395</v>
+        <v>486</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D178" s="7">
-        <v>4902869</v>
+        <v>4902929</v>
       </c>
       <c r="E178" s="7">
-        <v>1209292</v>
+        <v>1209598</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
@@ -5000,19 +5064,19 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D179" s="7">
-        <v>4902962</v>
+        <v>4902929</v>
       </c>
       <c r="E179" s="7">
-        <v>1209296</v>
+        <v>1209826</v>
       </c>
       <c r="F179" s="3">
         <v>1</v>
@@ -5023,19 +5087,19 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="D180" s="7">
-        <v>4902935</v>
+        <v>4903570</v>
       </c>
       <c r="E180" s="7">
-        <v>1208937</v>
+        <v>1209470</v>
       </c>
       <c r="F180" s="3">
         <v>1</v>
@@ -5045,43 +5109,43 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="4">
-        <v>168</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D181" s="6">
-        <v>4902970</v>
-      </c>
-      <c r="E181" s="6">
-        <v>1208998</v>
-      </c>
-      <c r="F181" s="5">
-        <v>1</v>
-      </c>
-      <c r="G181" s="5" t="s">
+      <c r="A181" s="2">
+        <v>392</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D181" s="7">
+        <v>4902701</v>
+      </c>
+      <c r="E181" s="7">
+        <v>1209692</v>
+      </c>
+      <c r="F181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
-        <v>486</v>
+        <v>386</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D182" s="7">
-        <v>4902929</v>
+        <v>4903729</v>
       </c>
       <c r="E182" s="7">
-        <v>1209598</v>
+        <v>1209615</v>
       </c>
       <c r="F182" s="3">
         <v>1</v>
@@ -5092,116 +5156,24 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D183" s="7">
-        <v>4902929</v>
+        <v>4903881</v>
       </c>
       <c r="E183" s="7">
-        <v>1209826</v>
+        <v>1209479</v>
       </c>
       <c r="F183" s="3">
         <v>1</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="2">
-        <v>387</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D184" s="7">
-        <v>4903570</v>
-      </c>
-      <c r="E184" s="7">
-        <v>1209470</v>
-      </c>
-      <c r="F184" s="3">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="2">
-        <v>392</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D185" s="7">
-        <v>4902701</v>
-      </c>
-      <c r="E185" s="7">
-        <v>1209692</v>
-      </c>
-      <c r="F185" s="3">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="2">
-        <v>386</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D186" s="7">
-        <v>4903729</v>
-      </c>
-      <c r="E186" s="7">
-        <v>1209615</v>
-      </c>
-      <c r="F186" s="3">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="2">
-        <v>385</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D187" s="7">
-        <v>4903881</v>
-      </c>
-      <c r="E187" s="7">
-        <v>1209479</v>
-      </c>
-      <c r="F187" s="3">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3" t="s">
         <v>0</v>
       </c>
     </row>
